--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1016.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1016.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.18149815959483</v>
+        <v>1.536181092262268</v>
       </c>
       <c r="B1">
-        <v>3.281675137947842</v>
+        <v>2.13808012008667</v>
       </c>
       <c r="C1">
-        <v>3.767920903504757</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.148024558349596</v>
+        <v>1.378749966621399</v>
       </c>
       <c r="E1">
-        <v>1.028206504869053</v>
+        <v>0.6528251171112061</v>
       </c>
     </row>
   </sheetData>
